--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/193.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/193.xlsx
@@ -479,13 +479,13 @@
         <v>-11.89158792178138</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.68224790496722</v>
+        <v>-14.68507584238103</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08199980653682244</v>
+        <v>-0.07964319202531175</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.15330932009985</v>
+        <v>-11.15706681101542</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.72103019143879</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.83792847805818</v>
+        <v>-14.84046838480947</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01475773914171736</v>
+        <v>-0.01208690936200524</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.86097128994694</v>
+        <v>-10.86448002710853</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.50002644695487</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.1982024676568</v>
+        <v>-15.20099112816209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0239431080584249</v>
+        <v>0.0264044609926694</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.49430825656157</v>
+        <v>-10.49811811668851</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.23364888506525</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.70647184857829</v>
+        <v>-15.70952235514041</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1496292153389951</v>
+        <v>0.152457152752808</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.30700977210783</v>
+        <v>-10.31098983217172</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.9119173435053</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.19015388476302</v>
+        <v>-16.19341386817061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1417214644225926</v>
+        <v>0.1444053865051464</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.14750624658708</v>
+        <v>-10.15165650658791</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.53033311303242</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.75821581276267</v>
+        <v>-16.76198639598109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2723040929659684</v>
+        <v>0.275812830127551</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.00004763968072</v>
+        <v>-10.00415862277302</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.08487303801964</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.34188376574966</v>
+        <v>-17.34609948726469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.424070067507257</v>
+        <v>0.4272122201892712</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.79470796191109</v>
+        <v>-9.79880585270055</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.578814447679417</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.06590120519995</v>
+        <v>-18.07066680343434</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6995321192971735</v>
+        <v>0.703093225670123</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.831091471508246</v>
+        <v>-9.835254823811916</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.016661481542158</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.54689931930212</v>
+        <v>-18.5520053174104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7438888413249414</v>
+        <v>0.7470048094012722</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.485847445571931</v>
+        <v>-9.489840597938658</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.406341972256683</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.14884412705617</v>
+        <v>-19.15434289424969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8694047486685692</v>
+        <v>0.8725207167449001</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.437733232628588</v>
+        <v>-9.441883492629415</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.760469194817649</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.69500263240161</v>
+        <v>-19.70064541492639</v>
       </c>
       <c r="F12" t="n">
-        <v>1.025543552358994</v>
+        <v>1.029065381823419</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.945947060984832</v>
+        <v>-8.950149690197025</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.09303366833345</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.5062148087778</v>
+        <v>-20.51213252966226</v>
       </c>
       <c r="F13" t="n">
-        <v>1.208848884446001</v>
+        <v>1.21263255996726</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.451202028898845</v>
+        <v>-8.45594144252755</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.432350596683304</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.33794262370697</v>
+        <v>-21.34388652919711</v>
       </c>
       <c r="F14" t="n">
-        <v>1.527214412648254</v>
+        <v>1.53143013416329</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.991374168491742</v>
+        <v>-7.996755104959691</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.802798157771744</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.16061056506967</v>
+        <v>-22.16669848589108</v>
       </c>
       <c r="F15" t="n">
-        <v>1.639205971156379</v>
+        <v>1.643604984911198</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.547689117488487</v>
+        <v>-7.553619930675789</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.227911150984692</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.01890266246471</v>
+        <v>-23.02483347565201</v>
       </c>
       <c r="F16" t="n">
-        <v>1.916553314555504</v>
+        <v>1.921109435944424</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.971496869424123</v>
+        <v>-6.977021821223331</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.727861138562656</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.63281383501608</v>
+        <v>-23.63860063287213</v>
       </c>
       <c r="F17" t="n">
-        <v>2.106653551817366</v>
+        <v>2.111288227023337</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.883974824927184</v>
+        <v>-6.889669976663335</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.315471678930325</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.44418311902637</v>
+        <v>-24.45014011681936</v>
       </c>
       <c r="F18" t="n">
-        <v>2.519872814107924</v>
+        <v>2.525004996821881</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.483009958096481</v>
+        <v>-6.48869201752979</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.003960550083935</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.29289165074126</v>
+        <v>-25.29911049459109</v>
       </c>
       <c r="F19" t="n">
-        <v>2.784625362173309</v>
+        <v>2.789809914098632</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.181454946743004</v>
+        <v>-6.186875160119479</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.79831003416273</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.04598709480303</v>
+        <v>-26.05221903095569</v>
       </c>
       <c r="F20" t="n">
-        <v>3.006513710734882</v>
+        <v>3.011698262660206</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.064920359148801</v>
+        <v>-6.071008279970203</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.699640664695964</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.62986452463549</v>
+        <v>-26.63612264539384</v>
       </c>
       <c r="F21" t="n">
-        <v>3.325337469536596</v>
+        <v>3.330312544616451</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.736997449872089</v>
+        <v>-5.742679509305398</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.703543041564143</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.21594146134536</v>
+        <v>-27.22225195131507</v>
       </c>
       <c r="F22" t="n">
-        <v>3.534159699862126</v>
+        <v>3.538715821251047</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.586488336403606</v>
+        <v>-5.592916657098893</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.800978132373549</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.66483724887962</v>
+        <v>-27.67087280048965</v>
       </c>
       <c r="F23" t="n">
-        <v>3.717242462800824</v>
+        <v>3.721720030372694</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.389121871064585</v>
+        <v>-5.395301438005879</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.98134453450414</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.89384781018709</v>
+        <v>-27.89994882331134</v>
       </c>
       <c r="F24" t="n">
-        <v>3.852852535635422</v>
+        <v>3.857356287812976</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.226188162199304</v>
+        <v>-5.232459375260491</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.229342644066147</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.16234475686521</v>
+        <v>-28.16824938544683</v>
       </c>
       <c r="F25" t="n">
-        <v>4.167800972795985</v>
+        <v>4.172383278790589</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.934007239680503</v>
+        <v>-4.940068975896223</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.530914517008169</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.12250487931784</v>
+        <v>-28.12837023099093</v>
       </c>
       <c r="F26" t="n">
-        <v>4.325798883489934</v>
+        <v>4.330800143175474</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.936416223403381</v>
+        <v>-4.942713621070252</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.867965969715193</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.01572405734072</v>
+        <v>-28.02137993216834</v>
       </c>
       <c r="F27" t="n">
-        <v>4.280656623291663</v>
+        <v>4.285343667709001</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.756095936364288</v>
+        <v>-4.761712534283388</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.221078789737445</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.96330247676245</v>
+        <v>-27.96914164382986</v>
       </c>
       <c r="F28" t="n">
-        <v>4.2630343836667</v>
+        <v>4.267276289787419</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.674570166568859</v>
+        <v>-4.679754718494183</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.570133942448357</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.75229383186235</v>
+        <v>-27.75777950675303</v>
       </c>
       <c r="F29" t="n">
-        <v>4.252089218491017</v>
+        <v>4.256200201583319</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.556543056450699</v>
+        <v>-4.56147885462203</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.897690093522592</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.6076631623698</v>
+        <v>-27.61297863732354</v>
       </c>
       <c r="F30" t="n">
-        <v>4.157353315128287</v>
+        <v>4.161123898346704</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.51035341202509</v>
+        <v>-4.515263025590737</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.190763856105659</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.16450180348022</v>
+        <v>-27.16960780158849</v>
       </c>
       <c r="F31" t="n">
-        <v>4.013626014531818</v>
+        <v>4.017187120904768</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.605050038479294</v>
+        <v>-4.609462144536955</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.439719229603684</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.78987864996706</v>
+        <v>-26.79474898662419</v>
       </c>
       <c r="F32" t="n">
-        <v>3.929102107385635</v>
+        <v>3.932427552307433</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.685528424047384</v>
+        <v>-4.689875068590838</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.63792883726228</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.37021797467838</v>
+        <v>-26.37510140363834</v>
       </c>
       <c r="F33" t="n">
-        <v>3.796319971964849</v>
+        <v>3.799619232280964</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.630174167632567</v>
+        <v>-4.633394874131631</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.781226009215772</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.88497795445549</v>
+        <v>-25.88969118347851</v>
       </c>
       <c r="F34" t="n">
-        <v>3.66867001925802</v>
+        <v>3.6717074335173</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.454344540468186</v>
+        <v>-4.457054647156423</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.87011221507071</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.4800330275609</v>
+        <v>-25.48448441052708</v>
       </c>
       <c r="F35" t="n">
-        <v>3.428819031197598</v>
+        <v>3.431934999273929</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.464150675296638</v>
+        <v>-4.466376366779731</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.90802464626973</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.79081492906391</v>
+        <v>-24.79527940433294</v>
       </c>
       <c r="F36" t="n">
-        <v>3.215545417905881</v>
+        <v>3.218137693868542</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.735514836297094</v>
+        <v>-4.737491774026195</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.903859640950886</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.31405872108246</v>
+        <v>-24.31828753490034</v>
       </c>
       <c r="F37" t="n">
-        <v>3.084098697374951</v>
+        <v>3.08682189636603</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.732922560334432</v>
+        <v>-4.734454359766914</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.867171997760466</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.90070853576348</v>
+        <v>-23.90471478043305</v>
       </c>
       <c r="F38" t="n">
-        <v>3.011829185688623</v>
+        <v>3.014473830862652</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.875340630646729</v>
+        <v>-4.877068814621837</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.808201265851678</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.40206199743066</v>
+        <v>-23.40593731907181</v>
       </c>
       <c r="F39" t="n">
-        <v>2.983130857859559</v>
+        <v>2.985827872244955</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.749130831252489</v>
+        <v>-4.750531707656554</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.739339240129402</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.02000241590341</v>
+        <v>-23.02375990681899</v>
       </c>
       <c r="F40" t="n">
-        <v>3.068178457119412</v>
+        <v>3.071451532829844</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.73821185068249</v>
+        <v>-4.73927232721267</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.671439459125584</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.49024856601865</v>
+        <v>-22.49392750311717</v>
       </c>
       <c r="F41" t="n">
-        <v>3.088104942044519</v>
+        <v>3.091011433275382</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.666374384989939</v>
+        <v>-4.667408676914436</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.617882903029702</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.81670195402321</v>
+        <v>-21.82007976815638</v>
       </c>
       <c r="F42" t="n">
-        <v>3.18459521398804</v>
+        <v>3.187344597584802</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.69308268278706</v>
+        <v>-4.694208620831449</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.587425055584964</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.15416596871766</v>
+        <v>-21.15747832133662</v>
       </c>
       <c r="F43" t="n">
-        <v>3.302504493380625</v>
+        <v>3.305280061583071</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.734284159829972</v>
+        <v>-4.735658851628354</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.585449461861807</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.86656735219347</v>
+        <v>-20.86969641257264</v>
       </c>
       <c r="F44" t="n">
-        <v>3.211355880996528</v>
+        <v>3.213921972353507</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.787190155613387</v>
+        <v>-4.788407739777668</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.612522853997857</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.38250563922633</v>
+        <v>-20.38538594585151</v>
       </c>
       <c r="F45" t="n">
-        <v>3.33591605023271</v>
+        <v>3.338743987646523</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.736797881975583</v>
+        <v>-4.73783217390008</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.667590057498142</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.05353534572228</v>
+        <v>-20.05654657537588</v>
       </c>
       <c r="F46" t="n">
-        <v>3.36466674727314</v>
+        <v>3.367442315475587</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.718154442728966</v>
+        <v>-4.718521027208534</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.74884687297355</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.51303271520446</v>
+        <v>-19.51571663728701</v>
       </c>
       <c r="F47" t="n">
-        <v>3.373595697811198</v>
+        <v>3.376214158379543</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.990291049597084</v>
+        <v>-4.990435064928342</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.851927998252709</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.03892115239703</v>
+        <v>-19.04151342835969</v>
       </c>
       <c r="F48" t="n">
-        <v>3.304861107892136</v>
+        <v>3.307296276220697</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.106131745140676</v>
+        <v>-5.106223391260568</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.971742705442391</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.64819446638856</v>
+        <v>-18.651218788345</v>
       </c>
       <c r="F49" t="n">
-        <v>3.324368639126308</v>
+        <v>3.326751438243502</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.392840085071635</v>
+        <v>-5.393128115734153</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.100818211968514</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.13489764117585</v>
+        <v>-18.13777794780103</v>
       </c>
       <c r="F50" t="n">
-        <v>3.46160215751328</v>
+        <v>3.464430094927093</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.316695251744156</v>
+        <v>-5.316053728904912</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.235009774063556</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.46893147252577</v>
+        <v>-17.47194270217937</v>
       </c>
       <c r="F51" t="n">
-        <v>3.4769201518381</v>
+        <v>3.479983750703064</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.529746295887565</v>
+        <v>-5.529091680745478</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.369468377311948</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.07744543295248</v>
+        <v>-17.08036501648618</v>
       </c>
       <c r="F52" t="n">
-        <v>3.308107998996884</v>
+        <v>3.310909751805013</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.814739544146257</v>
+        <v>-5.814857374871833</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.50195576988833</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.68594630107634</v>
+        <v>-16.68904917684983</v>
       </c>
       <c r="F53" t="n">
-        <v>3.344242754840048</v>
+        <v>3.34683503080271</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.8461610709664</v>
+        <v>-5.846121794057875</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.628599501827085</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.48566025220362</v>
+        <v>-16.4891689893652</v>
       </c>
       <c r="F54" t="n">
-        <v>3.080197191128117</v>
+        <v>3.082684728668045</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.025564896806572</v>
+        <v>-6.025224496932688</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.743508326086321</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.19338768356492</v>
+        <v>-16.1971451744805</v>
       </c>
       <c r="F55" t="n">
-        <v>2.932227984410928</v>
+        <v>2.934794075767907</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.171190581315091</v>
+        <v>-6.170483596961638</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.841714388673113</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.86080391447656</v>
+        <v>-15.86496726678022</v>
       </c>
       <c r="F56" t="n">
-        <v>2.878470988942801</v>
+        <v>2.88103708029978</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.476581637401194</v>
+        <v>-6.476463806675619</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.916509788836151</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.31443593228564</v>
+        <v>-15.31856000768079</v>
       </c>
       <c r="F57" t="n">
-        <v>2.911620699738052</v>
+        <v>2.914605744785965</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.734486911080356</v>
+        <v>-6.734316711143413</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.965012846993682</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.11040548480018</v>
+        <v>-15.11479140625216</v>
       </c>
       <c r="F58" t="n">
-        <v>2.752575404816763</v>
+        <v>2.755691372893094</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.709532981864026</v>
+        <v>-6.709467520349818</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.982394741605503</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.76462467444736</v>
+        <v>-14.76918079583628</v>
       </c>
       <c r="F59" t="n">
-        <v>2.875433574683521</v>
+        <v>2.87891612723942</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.820673540687438</v>
+        <v>-6.820464063841971</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.96382623704628</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.70670432667556</v>
+        <v>-14.711548478727</v>
       </c>
       <c r="F60" t="n">
-        <v>2.694367026382449</v>
+        <v>2.697875763544032</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.82356693961546</v>
+        <v>-6.823580031918302</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.904286333351691</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.36316230010867</v>
+        <v>-14.36792789834306</v>
       </c>
       <c r="F61" t="n">
-        <v>2.580071222574181</v>
+        <v>2.583579959735763</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.227804882156594</v>
+        <v>-7.228223835847529</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.802314003719794</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.15280827035066</v>
+        <v>-14.15807137609303</v>
       </c>
       <c r="F62" t="n">
-        <v>2.532546163258715</v>
+        <v>2.536238192660082</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.177478070032999</v>
+        <v>-7.177386423913107</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.658552328535858</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.83352628094948</v>
+        <v>-13.83884175590322</v>
       </c>
       <c r="F63" t="n">
-        <v>2.460276651572387</v>
+        <v>2.463968680973754</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.375420596697055</v>
+        <v>-7.37576099657094</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.474106917076731</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.64394973580129</v>
+        <v>-13.64955324141755</v>
       </c>
       <c r="F64" t="n">
-        <v>2.370751484740664</v>
+        <v>2.374574437170448</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.398659434241119</v>
+        <v>-7.398122649824608</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.251101592309032</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.45344363715133</v>
+        <v>-13.45916497349317</v>
       </c>
       <c r="F65" t="n">
-        <v>2.134723449110027</v>
+        <v>2.137656124946573</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.741363553426141</v>
+        <v>-7.74142901494035</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.99051074447216</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.23711951729749</v>
+        <v>-13.2429586843649</v>
       </c>
       <c r="F66" t="n">
-        <v>2.068135996857008</v>
+        <v>2.071094857299238</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.788351828325095</v>
+        <v>-7.787998336148369</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.699716927224698</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.06695885726358</v>
+        <v>-13.07285039354236</v>
       </c>
       <c r="F67" t="n">
-        <v>2.334616728897501</v>
+        <v>2.338780081201169</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.862087677929697</v>
+        <v>-7.86233643168369</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.38470638429917</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.01558466091265</v>
+        <v>-13.02168567403689</v>
       </c>
       <c r="F68" t="n">
-        <v>2.049937695907009</v>
+        <v>2.053289325434491</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.766461497973729</v>
+        <v>-7.766108005797003</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.051630713663883</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.87496023608967</v>
+        <v>-12.88111361842528</v>
       </c>
       <c r="F69" t="n">
-        <v>2.102306907273913</v>
+        <v>2.106548813394632</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.838783378871424</v>
+        <v>-7.83844297899754</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.70614383707793</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.84929932251988</v>
+        <v>-12.85585856624359</v>
       </c>
       <c r="F70" t="n">
-        <v>2.102752045570532</v>
+        <v>2.1067582902401</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.748996365982867</v>
+        <v>-7.748472673869198</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.351621845291931</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.54483781993554</v>
+        <v>-12.55120067911662</v>
       </c>
       <c r="F71" t="n">
-        <v>2.057583600766577</v>
+        <v>2.061668399253195</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.46329613337072</v>
+        <v>-7.462013087692232</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.994208331741555</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.47738627569497</v>
+        <v>-12.48368367336184</v>
       </c>
       <c r="F72" t="n">
-        <v>2.067978889222907</v>
+        <v>2.071828026258375</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.525838064045646</v>
+        <v>-7.524869233635359</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.639759217709154</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.1726629270538</v>
+        <v>-12.17744161759103</v>
       </c>
       <c r="F73" t="n">
-        <v>2.043967605811182</v>
+        <v>2.047842927452332</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.265419068220873</v>
+        <v>-7.263664699640081</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.293129530969011</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.37428439081638</v>
+        <v>-12.37908926595929</v>
       </c>
       <c r="F74" t="n">
-        <v>2.06868587357636</v>
+        <v>2.072430272189094</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.212264318683465</v>
+        <v>-7.210850349976559</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.958461934678251</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.5069225109059</v>
+        <v>-12.51174047835166</v>
       </c>
       <c r="F75" t="n">
-        <v>2.000684452616435</v>
+        <v>2.004428851229169</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.138030961570879</v>
+        <v>-7.136918115829332</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.639419076057876</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.76853290628928</v>
+        <v>-12.77293192004409</v>
       </c>
       <c r="F76" t="n">
-        <v>1.982747997723271</v>
+        <v>1.986256734884853</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.797002657149598</v>
+        <v>-6.795091180934706</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.340133623647752</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.34552378482698</v>
+        <v>-13.34973950634202</v>
       </c>
       <c r="F77" t="n">
-        <v>1.974944985229602</v>
+        <v>1.978558460813918</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.735730679850319</v>
+        <v>-6.734421449566147</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.067419720051496</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.83912978656574</v>
+        <v>-13.84313603123531</v>
       </c>
       <c r="F78" t="n">
-        <v>2.024617182211111</v>
+        <v>2.028335396218161</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.745602276192981</v>
+        <v>-6.745091676382154</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.827201754700363</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.32793091316158</v>
+        <v>-14.33191097322547</v>
       </c>
       <c r="F79" t="n">
-        <v>2.070178396100317</v>
+        <v>2.073818056290317</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.646061497687338</v>
+        <v>-6.645969851567446</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.625209536451031</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.87669478677253</v>
+        <v>-14.88062247762505</v>
       </c>
       <c r="F80" t="n">
-        <v>1.963240466489099</v>
+        <v>1.966382619171113</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.297596765251956</v>
+        <v>-6.297059980835446</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.467614620339706</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.6492453928571</v>
+        <v>-15.65310762219541</v>
       </c>
       <c r="F81" t="n">
-        <v>2.060542461208807</v>
+        <v>2.063867906130605</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.237228156848758</v>
+        <v>-6.236992495397607</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.359417123409659</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.37927219931175</v>
+        <v>-16.38300350562164</v>
       </c>
       <c r="F82" t="n">
-        <v>2.034357855525355</v>
+        <v>2.037369085178952</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.137163686229446</v>
+        <v>-6.136849470961244</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.308533036873871</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.25556621311416</v>
+        <v>-17.25933679633258</v>
       </c>
       <c r="F83" t="n">
-        <v>2.014457555205931</v>
+        <v>2.017599707887945</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.843241487432695</v>
+        <v>-5.84274397992471</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.321335484371955</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.30996791477541</v>
+        <v>-18.31364685187393</v>
       </c>
       <c r="F84" t="n">
-        <v>2.029461334262549</v>
+        <v>2.032236902464995</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.729076606652844</v>
+        <v>-5.728971868230111</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.405093854044942</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.10965886465088</v>
+        <v>-19.11328543253804</v>
       </c>
       <c r="F85" t="n">
-        <v>2.05457237111298</v>
+        <v>2.05753123155521</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.589015150852059</v>
+        <v>-5.589276996908893</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.565631276512905</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.25581142462694</v>
+        <v>-20.25975220778231</v>
       </c>
       <c r="F86" t="n">
-        <v>2.042579821709959</v>
+        <v>2.045486312940822</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252307306368547</v>
+        <v>-5.252359675579914</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.806553725288677</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.32152487594345</v>
+        <v>-21.32549184370449</v>
       </c>
       <c r="F87" t="n">
-        <v>1.872982130698239</v>
+        <v>1.874841237701764</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.894599408126908</v>
+        <v>-4.894180454435973</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.129476717537182</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.66424527078519</v>
+        <v>-22.6681075001235</v>
       </c>
       <c r="F88" t="n">
-        <v>1.96567563481766</v>
+        <v>1.967744218666653</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661805171298177</v>
+        <v>-4.661818263601019</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.531088347788389</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.04797075812722</v>
+        <v>-24.05137475686607</v>
       </c>
       <c r="F89" t="n">
-        <v>1.829594239080759</v>
+        <v>1.832055592015003</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.278658928635063</v>
+        <v>-4.278436359486754</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.010630658172481</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.51771267513939</v>
+        <v>-25.52102502775834</v>
       </c>
       <c r="F90" t="n">
-        <v>1.617498933044797</v>
+        <v>1.619593701499473</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.162399279400536</v>
+        <v>-4.162595663943161</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.562302121668722</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.16142511231241</v>
+        <v>-27.16467200341716</v>
       </c>
       <c r="F91" t="n">
-        <v>1.413913623855956</v>
+        <v>1.415798915465165</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.063107254648886</v>
+        <v>-4.062976331620468</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.177355791410451</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.75860750518594</v>
+        <v>-28.7612914272685</v>
       </c>
       <c r="F92" t="n">
-        <v>1.29235159197053</v>
+        <v>1.294040499037113</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.794060431251415</v>
+        <v>-3.79379858519458</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.844490803783889</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.60896885041277</v>
+        <v>-30.61141711104417</v>
       </c>
       <c r="F93" t="n">
-        <v>1.154057597053377</v>
+        <v>1.155654858000068</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.786414526391847</v>
+        <v>-3.785890834278177</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.54404024434127</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.68849786458117</v>
+        <v>-32.69060572533869</v>
       </c>
       <c r="F94" t="n">
-        <v>1.041044838923598</v>
+        <v>1.042537361447555</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.781792943488717</v>
+        <v>-3.781033589923897</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.264264175623214</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.72109097306198</v>
+        <v>-34.7228846185513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6366236041426797</v>
+        <v>0.6381554035751617</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.767679441025336</v>
+        <v>-3.766815349037782</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.990408941995562</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.6930012578714</v>
+        <v>-36.69453305730388</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4113312568422575</v>
+        <v>0.4131510869372574</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.979774747061299</v>
+        <v>-3.979107039616371</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.702279874842839</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.7828208220734</v>
+        <v>-38.78410386775189</v>
       </c>
       <c r="F97" t="n">
-        <v>0.03099985929011525</v>
+        <v>0.0325316587225972</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.979107039616371</v>
+        <v>-3.977954916966299</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.387291935049225</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00885270504072</v>
+        <v>-41.00949422787996</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1800873394270341</v>
+        <v>-0.1782675093320342</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.179458550003305</v>
+        <v>-4.178280242747549</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.01819051603944</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38908573087788</v>
+        <v>-43.38947849996313</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1007479842061742</v>
+        <v>-0.0989543387168577</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.508127720541996</v>
+        <v>-4.507001782497608</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.59542935842614</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79635436208321</v>
+        <v>-45.79634126978037</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3660765935965947</v>
+        <v>-0.3649375632493645</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.693095775089902</v>
+        <v>-4.69164252947447</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.0888731005763</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19512608874426</v>
+        <v>-48.19508681183574</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3045951394518491</v>
+        <v>-0.3029847862023167</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.972498610035178</v>
+        <v>-4.970626410728811</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.52697692684223</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41330259000654</v>
+        <v>-50.41285745170993</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4506397776513034</v>
+        <v>-0.4491472551273466</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.329761369980199</v>
+        <v>-5.328085555216458</v>
       </c>
     </row>
   </sheetData>
